--- a/public/sample/sample_stk27.xlsx
+++ b/public/sample/sample_stk27.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sangmosoft/uhyun/work/bw/bluewolf/public/sample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC27E0F-EF4D-D846-B719-EDB458572B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D4E7B57-B0F5-B54F-A7BF-FD61748F9145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29920" yWindow="8520" windowWidth="23880" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-56080" yWindow="-3680" windowWidth="23880" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="조정종류" sheetId="4" r:id="rId2"/>
+    <sheet name="조정사유" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>F224MJK07CTJM0L</t>
   </si>
@@ -41,19 +43,58 @@
   </si>
   <si>
     <t>메모</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOSS사유</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>바코드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>조정재고</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품반품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장반품</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조정사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>창고테스트사유</t>
+  </si>
+  <si>
+    <t>창고테스트사유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -78,6 +119,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -86,22 +135,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +154,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -144,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -154,13 +203,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -477,51 +529,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73C5B2A9-C32D-8B45-B525-11551C7A20E4}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="1" max="1" width="30.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="5" width="30.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="31" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DC92C85-879B-8844-B396-67D481724260}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" customHeight="1">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" customHeight="1">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA3E2AD-E25D-034F-B2F8-D84659B554A8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="30" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" customHeight="1">
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>